--- a/emotion-genre.xlsx
+++ b/emotion-genre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhenl\Documents\GitHub\E-MRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhenl\Documents\GitHub\MRS-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Horror</t>
   </si>
@@ -65,13 +65,7 @@
     <t>Love</t>
   </si>
   <si>
-    <t>Surprise</t>
-  </si>
-  <si>
     <t>Anger</t>
-  </si>
-  <si>
-    <t>Fear</t>
   </si>
   <si>
     <t>Sadness</t>
@@ -398,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -446,160 +440,108 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
       <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
       <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="1">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
